--- a/pred_ohlcv/54_21/2020-01-21 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-80319.49820682607</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-80616.35780682607</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-101702.9408936619</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-118025.7872936619</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-112161.5344936619</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-111061.5344936619</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-88389.17710682607</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-109201.7885936619</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-111127.1935732003</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-124900.5276732003</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-124892.5276732003</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-125006.3784732003</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-124986.3784732003</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-125140.0089732003</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-126890.0089732003</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-126591.4568732003</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-126087.3705732003</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-128405.0193732003</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-117578.7937460361</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2404.004057223189</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-37152.15525722319</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-37042.15525722319</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-39031.09635722318</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 FX ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-80319.49820682607</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-80616.35780682607</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-101702.9408936619</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-107378.4170936619</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-113161.5344936619</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-109211.9384936619</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-109201.7885936619</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-110040.6361732003</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-111186.5455732003</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-111127.1935732003</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-124900.5276732003</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-124892.5276732003</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-125024.5584732003</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-125006.3784732003</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-124986.3784732003</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-125140.0089732003</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-126890.0089732003</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-126591.4568732003</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-126087.3705732003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-126322.8314732003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-128405.0193732003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-117578.7937460361</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-44106.65716534901</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-52076.65046534901</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-67363.12916534902</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-54977.5030886094</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-54977.5030886094</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-60131.9429886094</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-59278.4473886094</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-67630.46940761134</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-7112.998557223189</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2404.004057223189</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-37152.15525722319</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-37042.15525722319</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-39031.09635722318</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
